--- a/data/BTS/TRPT/old/table_01_40_011421.xlsx
+++ b/data/BTS/TRPT/old/table_01_40_011421.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\RITHQNWFS001.ad.dot.gov\data\NTS\2021\012821 January\toWeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\NTS\2021\082621 August\To Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E13CF7-AE19-46B6-8D9B-B45698AF4C24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9870" yWindow="1275" windowWidth="8865" windowHeight="7395" tabRatio="680"/>
+    <workbookView xWindow="-20610" yWindow="2565" windowWidth="20730" windowHeight="11160" tabRatio="680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-40" sheetId="40" r:id="rId1"/>
@@ -25,12 +26,22 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="80">
   <si>
     <t>U</t>
   </si>
@@ -1151,7 +1162,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1990-2019: U.S. Department of Transportation, Bureau of Transportation Statistics, Office of Airline Information,  </t>
+      <t xml:space="preserve">1994-2019: U.S. Department of Transportation, Federal Highway Administration, </t>
     </r>
     <r>
       <rPr>
@@ -1160,15 +1171,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Air Carrier Statistics T-100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, available at https://transtats.bts.gov/ as of Jan. 8, 2021.</t>
+      <t>Highway Statistics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Washington, DC: Annual Issues), table VM-1, available at http://www.fhwa.dot.gov/policyinformation/statistics.cfm as of Jan. 8, 2021, minus transit bus categories (Motor bus, Trolley bus, and Demand response).</t>
     </r>
   </si>
   <si>
@@ -1190,12 +1201,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (Washington, DC: Annual Issues), table VM-1, available at http://www.fhwa.dot.gov/policyinformation/statistics.cfm as of Jan. 8, 2021, minus transit bus categories (Motor bus, Trolley bus, and Demand response).</t>
+      <t xml:space="preserve"> (Washington, DC: Annual Issues), table VM-1, available at http://www.fhwa.dot.gov/policyinformation/statistics.cfm as of Jan. 8, 2021.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1994-2019: U.S. Department of Transportation, Federal Highway Administration, </t>
+      <t xml:space="preserve">2009-19: U.S. Department of Transportation, Federal Transit Administration, </t>
     </r>
     <r>
       <rPr>
@@ -1204,20 +1215,37 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Highway Statistics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Washington, DC: Annual Issues), table VM-1, available at http://www.fhwa.dot.gov/policyinformation/statistics.cfm as of Jan. 8, 2021.</t>
+      <t>National Transit Database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Washington, DC: Annual Issues), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Annual Database Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, available at https://www.transit.dot.gov/ntd/ntd-data as of Jan. 8, 2021.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2009-19: U.S. Department of Transportation, Federal Transit Administration, </t>
+      <t xml:space="preserve">1990-2000: Amtrak, </t>
     </r>
     <r>
       <rPr>
@@ -1226,37 +1254,20 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>National Transit Database</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Washington, DC: Annual Issues), </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Annual Database Service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, available at https://www.transit.dot.gov/ntd/ntd-data as of Jan. 8, 2021.</t>
+      <t xml:space="preserve">Amtrak Annual Report </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Washington, DC: Annual Issues), Statistical Appendix.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1990-2000: Amtrak, </t>
+      <t xml:space="preserve">2009-19: U.S. Department of Transportation, Federal Transit Administration, </t>
     </r>
     <r>
       <rPr>
@@ -1265,20 +1276,20 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Amtrak Annual Report </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Washington, DC: Annual Issues), Statistical Appendix.</t>
+      <t>National Transit Database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Washington, DC: Annual Issues), Annual Database Service, available at https://www.transit.dot.gov/ntd/ntd-data as of Jan. 8, 2021.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2009-19: U.S. Department of Transportation, Federal Transit Administration, </t>
+      <t xml:space="preserve">1990-2020: U.S. Department of Transportation, Bureau of Transportation Statistics, Office of Airline Information,  </t>
     </r>
     <r>
       <rPr>
@@ -1287,19 +1298,19 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>National Transit Database</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Washington, DC: Annual Issues), Annual Database Service, available at https://www.transit.dot.gov/ntd/ntd-data as of Jan. 8, 2021.</t>
+      <t>Air Carrier Statistics T-100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, available at https://transtats.bts.gov/ as of Aug. 19, 2021.</t>
     </r>
   </si>
   <si>
-    <t>2001-19: Amtrak, Energy Management Department and Government Affairs Department, personal communications, Aug. 28, 2020.</t>
+    <t>2001-20: Amtrak, Energy Management Department and Government Affairs Department, personal communications, Aug. 5, 2021.</t>
   </si>
   <si>
     <r>
@@ -1311,20 +1322,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> N = data do not exist; U = data are not available.</t>
+      <t xml:space="preserve"> N = data do not exist; R = revised; U = data are not available.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
     <numFmt numFmtId="165" formatCode="#,##0_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;(R)&quot;\ #,##0;&quot;(R) -&quot;#,##0;&quot;(R) &quot;\ 0"/>
+    <numFmt numFmtId="167" formatCode="&quot;(R)&quot;\ #,##0;&quot;(R) -&quot;#,##0;&quot;(R) &quot;\ 0"/>
+    <numFmt numFmtId="173" formatCode="\(\R\)\ #,##0"/>
   </numFmts>
   <fonts count="51">
     <font>
@@ -2183,7 +2195,7 @@
     <xf numFmtId="37" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2201,7 +2213,7 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2233,12 +2245,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2246,7 +2256,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2256,204 +2265,214 @@
     <xf numFmtId="3" fontId="23" fillId="0" borderId="5" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="144">
-    <cellStyle name="20% - Accent1 2" xfId="68"/>
-    <cellStyle name="20% - Accent2 2" xfId="69"/>
-    <cellStyle name="20% - Accent3 2" xfId="70"/>
-    <cellStyle name="20% - Accent4 2" xfId="71"/>
-    <cellStyle name="20% - Accent5 2" xfId="72"/>
-    <cellStyle name="20% - Accent6 2" xfId="73"/>
-    <cellStyle name="40% - Accent1 2" xfId="74"/>
-    <cellStyle name="40% - Accent2 2" xfId="75"/>
-    <cellStyle name="40% - Accent3 2" xfId="76"/>
-    <cellStyle name="40% - Accent4 2" xfId="77"/>
-    <cellStyle name="40% - Accent5 2" xfId="78"/>
-    <cellStyle name="40% - Accent6 2" xfId="79"/>
-    <cellStyle name="60% - Accent1 2" xfId="80"/>
-    <cellStyle name="60% - Accent2 2" xfId="81"/>
-    <cellStyle name="60% - Accent3 2" xfId="82"/>
-    <cellStyle name="60% - Accent4 2" xfId="83"/>
-    <cellStyle name="60% - Accent5 2" xfId="84"/>
-    <cellStyle name="60% - Accent6 2" xfId="85"/>
-    <cellStyle name="Accent1 2" xfId="86"/>
-    <cellStyle name="Accent2 2" xfId="87"/>
-    <cellStyle name="Accent3 2" xfId="88"/>
-    <cellStyle name="Accent4 2" xfId="89"/>
-    <cellStyle name="Accent5 2" xfId="90"/>
-    <cellStyle name="Accent6 2" xfId="91"/>
-    <cellStyle name="Bad 2" xfId="92"/>
-    <cellStyle name="Calculation 2" xfId="93"/>
-    <cellStyle name="Check Cell 2" xfId="94"/>
-    <cellStyle name="Column heading" xfId="1"/>
-    <cellStyle name="Comma 2" xfId="45"/>
-    <cellStyle name="Comma 2 2" xfId="53"/>
-    <cellStyle name="Comma 3" xfId="46"/>
-    <cellStyle name="Comma 4" xfId="54"/>
-    <cellStyle name="Comma 5" xfId="55"/>
-    <cellStyle name="Comma 6" xfId="44"/>
-    <cellStyle name="Comma 7" xfId="139"/>
-    <cellStyle name="Comma 8" xfId="141"/>
-    <cellStyle name="Corner heading" xfId="2"/>
-    <cellStyle name="Currency 2" xfId="56"/>
-    <cellStyle name="Currency 3" xfId="66"/>
-    <cellStyle name="Currency 3 2" xfId="95"/>
-    <cellStyle name="Data" xfId="3"/>
-    <cellStyle name="Data 2" xfId="39"/>
-    <cellStyle name="Data no deci" xfId="4"/>
-    <cellStyle name="Data Superscript" xfId="5"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="6"/>
-    <cellStyle name="Explanatory Text 2" xfId="96"/>
-    <cellStyle name="Good 2" xfId="97"/>
-    <cellStyle name="Heading 1 2" xfId="98"/>
-    <cellStyle name="Heading 2 2" xfId="99"/>
-    <cellStyle name="Heading 3 2" xfId="100"/>
-    <cellStyle name="Heading 4 2" xfId="101"/>
-    <cellStyle name="Hed Side" xfId="7"/>
-    <cellStyle name="Hed Side 2" xfId="38"/>
-    <cellStyle name="Hed Side bold" xfId="8"/>
-    <cellStyle name="Hed Side Indent" xfId="9"/>
-    <cellStyle name="Hed Side Regular" xfId="10"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="11"/>
-    <cellStyle name="Hed Top" xfId="12"/>
-    <cellStyle name="Hed Top - SECTION" xfId="13"/>
-    <cellStyle name="Hed Top_3-new4" xfId="14"/>
-    <cellStyle name="Hyperlink 2" xfId="137"/>
-    <cellStyle name="Input 2" xfId="102"/>
-    <cellStyle name="Linked Cell 2" xfId="103"/>
-    <cellStyle name="Neutral 2" xfId="104"/>
+    <cellStyle name="20% - Accent1 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="76" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="77" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="82" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="83" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="92" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Calculation 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Check Cell 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Column heading" xfId="1" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Comma 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 4" xfId="54" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 5" xfId="55" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 6" xfId="44" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 7" xfId="139" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 8" xfId="141" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Corner heading" xfId="2" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Currency 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency 3" xfId="66" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 3 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Data" xfId="3" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Data 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data no deci" xfId="4" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data Superscript" xfId="5" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="6" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Good 2" xfId="97" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Heading 1 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Heading 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Heading 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Heading 4 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Hed Side" xfId="7" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Hed Side 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Hed Side bold" xfId="8" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="9" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="10" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="11" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Hed Top" xfId="12" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="13" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="14" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="137" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Input 2" xfId="102" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Neutral 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="140"/>
-    <cellStyle name="Normal 11" xfId="138"/>
-    <cellStyle name="Normal 12" xfId="142"/>
-    <cellStyle name="Normal 13" xfId="143"/>
-    <cellStyle name="Normal 2" xfId="15"/>
-    <cellStyle name="Normal 2 2" xfId="57"/>
-    <cellStyle name="Normal 2 3" xfId="58"/>
-    <cellStyle name="Normal 3" xfId="47"/>
-    <cellStyle name="Normal 3 2" xfId="59"/>
-    <cellStyle name="Normal 3 2 2" xfId="105"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="106"/>
-    <cellStyle name="Normal 3 2 3" xfId="107"/>
-    <cellStyle name="Normal 3 3" xfId="108"/>
-    <cellStyle name="Normal 3 3 2" xfId="109"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="110"/>
-    <cellStyle name="Normal 3 3 3" xfId="111"/>
-    <cellStyle name="Normal 3 4" xfId="112"/>
-    <cellStyle name="Normal 3 4 2" xfId="113"/>
-    <cellStyle name="Normal 3 5" xfId="114"/>
-    <cellStyle name="Normal 3 6" xfId="115"/>
-    <cellStyle name="Normal 3 7" xfId="116"/>
-    <cellStyle name="Normal 4" xfId="48"/>
-    <cellStyle name="Normal 4 2" xfId="60"/>
-    <cellStyle name="Normal 4 2 2" xfId="117"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="118"/>
-    <cellStyle name="Normal 4 2 3" xfId="119"/>
-    <cellStyle name="Normal 4 3" xfId="120"/>
-    <cellStyle name="Normal 4 3 2" xfId="121"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="122"/>
-    <cellStyle name="Normal 4 3 3" xfId="123"/>
-    <cellStyle name="Normal 4 4" xfId="124"/>
-    <cellStyle name="Normal 4 4 2" xfId="125"/>
-    <cellStyle name="Normal 4 5" xfId="126"/>
-    <cellStyle name="Normal 4 6" xfId="127"/>
-    <cellStyle name="Normal 4 7" xfId="128"/>
-    <cellStyle name="Normal 5" xfId="49"/>
-    <cellStyle name="Normal 5 2" xfId="61"/>
-    <cellStyle name="Normal 5 3" xfId="129"/>
-    <cellStyle name="Normal 6" xfId="62"/>
-    <cellStyle name="Normal 6 2" xfId="130"/>
-    <cellStyle name="Normal 7" xfId="42"/>
-    <cellStyle name="Normal 7 2" xfId="52"/>
-    <cellStyle name="Normal 8" xfId="43"/>
-    <cellStyle name="Normal 9" xfId="63"/>
-    <cellStyle name="Note 2" xfId="67"/>
-    <cellStyle name="Note 2 2" xfId="131"/>
-    <cellStyle name="Output 2" xfId="132"/>
-    <cellStyle name="Percent 2" xfId="50"/>
-    <cellStyle name="Percent 2 2" xfId="64"/>
-    <cellStyle name="Percent 3" xfId="51"/>
-    <cellStyle name="Percent 3 2" xfId="133"/>
-    <cellStyle name="Percent 4" xfId="65"/>
-    <cellStyle name="Reference" xfId="16"/>
-    <cellStyle name="Row heading" xfId="17"/>
-    <cellStyle name="Source Hed" xfId="18"/>
-    <cellStyle name="Source Letter" xfId="19"/>
-    <cellStyle name="Source Superscript" xfId="20"/>
-    <cellStyle name="Source Superscript 2" xfId="40"/>
-    <cellStyle name="Source Text" xfId="21"/>
-    <cellStyle name="Source Text 2" xfId="41"/>
-    <cellStyle name="State" xfId="22"/>
-    <cellStyle name="Superscript" xfId="23"/>
-    <cellStyle name="Table Data" xfId="24"/>
-    <cellStyle name="Table Head Top" xfId="25"/>
-    <cellStyle name="Table Hed Side" xfId="26"/>
-    <cellStyle name="Table Title" xfId="27"/>
-    <cellStyle name="Title 2" xfId="134"/>
-    <cellStyle name="Title Text" xfId="28"/>
-    <cellStyle name="Title Text 1" xfId="29"/>
-    <cellStyle name="Title Text 2" xfId="30"/>
-    <cellStyle name="Title-1" xfId="31"/>
-    <cellStyle name="Title-2" xfId="32"/>
-    <cellStyle name="Title-3" xfId="33"/>
-    <cellStyle name="Total 2" xfId="135"/>
-    <cellStyle name="Warning Text 2" xfId="136"/>
-    <cellStyle name="Wrap" xfId="34"/>
-    <cellStyle name="Wrap Bold" xfId="35"/>
-    <cellStyle name="Wrap Title" xfId="36"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="37"/>
+    <cellStyle name="Normal 10" xfId="140" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Normal 11" xfId="138" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Normal 12" xfId="142" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Normal 13" xfId="143" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Normal 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normal 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Normal 2 3" xfId="58" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normal 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 3 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="106" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3 3" xfId="108" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="110" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="111" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 4" xfId="112" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="113" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 5" xfId="114" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 6" xfId="115" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 7" xfId="116" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 4 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="119" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4 3" xfId="120" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="123" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 4" xfId="124" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="125" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 5" xfId="126" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 6" xfId="127" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 7" xfId="128" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 5 3" xfId="129" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 6" xfId="62" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 6 2" xfId="130" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 7" xfId="42" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 7 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 8" xfId="43" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 9" xfId="63" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Note 2" xfId="67" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Note 2 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Output 2" xfId="132" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Percent 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Percent 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Percent 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Percent 3 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Percent 4" xfId="65" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Reference" xfId="16" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Row heading" xfId="17" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Source Hed" xfId="18" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Source Letter" xfId="19" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Source Superscript" xfId="20" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Source Text" xfId="21" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Source Text 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="State" xfId="22" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Superscript" xfId="23" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Table Data" xfId="24" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Table Head Top" xfId="25" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Table Hed Side" xfId="26" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Table Title" xfId="27" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Title 2" xfId="134" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Title Text" xfId="28" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Title Text 1" xfId="29" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Title Text 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Title-1" xfId="31" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Title-2" xfId="32" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Title-3" xfId="33" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Total 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Warning Text 2" xfId="136" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Wrap" xfId="34" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Wrap Bold" xfId="35" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Wrap Title" xfId="36" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="37" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2869,23 +2888,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:Z27"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A59" sqref="A59:Z59"/>
+      <selection pane="topRight" activeCell="A59" sqref="A59:Z59"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59:Z59"/>
+      <selection pane="bottomRight" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="41.7109375" style="20" customWidth="1"/>
-    <col min="2" max="28" width="8.85546875" style="20" customWidth="1"/>
-    <col min="29" max="35" width="8.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.85546875" style="20" customWidth="1"/>
-    <col min="38" max="245" width="9.140625" style="20"/>
+    <col min="2" max="36" width="9.28515625" style="20" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" style="20" customWidth="1"/>
+    <col min="38" max="38" width="9.28515625" style="20" customWidth="1"/>
+    <col min="39" max="245" width="9.140625" style="20"/>
     <col min="246" max="246" width="37.7109375" style="20" customWidth="1"/>
     <col min="247" max="273" width="12.140625" style="20" customWidth="1"/>
     <col min="274" max="274" width="12.7109375" style="20" customWidth="1"/>
@@ -3330,47 +3350,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-    </row>
-    <row r="2" spans="1:38" s="26" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+    </row>
+    <row r="2" spans="1:38" s="24" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>1960</v>
@@ -3480,8 +3501,11 @@
       <c r="AK2" s="3">
         <v>2019</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" s="23" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AL2" s="3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -3490,39 +3514,40 @@
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" s="6"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-    </row>
-    <row r="4" spans="1:38" s="23" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+    </row>
+    <row r="4" spans="1:38" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
@@ -3631,33 +3656,36 @@
       <c r="AJ4" s="10">
         <v>722415.33364099998</v>
       </c>
-      <c r="AK4" s="10">
-        <v>754303.24246600003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" s="23" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AK4" s="48">
+        <v>754449.99503999995</v>
+      </c>
+      <c r="AL4" s="10">
+        <v>304253.08078999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="26">
         <v>2300</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="26">
         <v>9100</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="26">
         <v>14700</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="26">
         <v>13000</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -3672,25 +3700,25 @@
       <c r="L5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="26">
         <v>10800</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="26">
         <v>12000</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="26">
         <v>12500</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="26">
         <v>13100</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="26">
         <v>14100</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="26">
         <v>15200</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="26">
         <v>15900</v>
       </c>
       <c r="T5" s="10" t="s">
@@ -3747,8 +3775,11 @@
       <c r="AK5" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" s="23" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AL5" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
@@ -3815,53 +3846,56 @@
       <c r="V6" s="12">
         <v>4824654.4447763506</v>
       </c>
-      <c r="W6" s="22">
+      <c r="W6" s="21">
         <v>4867608.4897589097</v>
       </c>
-      <c r="X6" s="22">
+      <c r="X6" s="21">
         <v>4908058.8374757655</v>
       </c>
-      <c r="Y6" s="22">
+      <c r="Y6" s="21">
         <v>4959766.7012</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z6" s="21">
         <v>4900171</v>
       </c>
-      <c r="AA6" s="22">
+      <c r="AA6" s="21">
         <v>5000591.8959189998</v>
       </c>
-      <c r="AB6" s="22">
+      <c r="AB6" s="21">
         <v>5009805.5620214241</v>
       </c>
-      <c r="AC6" s="22">
+      <c r="AC6" s="21">
         <v>4997049.3066988336</v>
       </c>
-      <c r="AD6" s="22">
+      <c r="AD6" s="21">
         <v>5046332.4132198002</v>
       </c>
-      <c r="AE6" s="22">
+      <c r="AE6" s="21">
         <v>5083123.4649372874</v>
       </c>
-      <c r="AF6" s="22">
+      <c r="AF6" s="21">
         <v>5158160.8548277542</v>
       </c>
-      <c r="AG6" s="22">
+      <c r="AG6" s="21">
         <v>5282710.2500658771</v>
       </c>
-      <c r="AH6" s="22">
+      <c r="AH6" s="21">
         <v>5411827.6229987517</v>
       </c>
-      <c r="AI6" s="22">
+      <c r="AI6" s="21">
         <v>5482189.7570441701</v>
       </c>
-      <c r="AJ6" s="22">
+      <c r="AJ6" s="21">
         <v>5545845.3035232006</v>
       </c>
-      <c r="AK6" s="22">
+      <c r="AK6" s="21">
         <v>5579125.9722718718</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" s="23" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AL6" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>26</v>
       </c>
@@ -3973,8 +4007,11 @@
       <c r="AK7" s="14">
         <v>3765896.0121443863</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" s="23" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AL7" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>28</v>
       </c>
@@ -4086,8 +4123,11 @@
       <c r="AK8" s="14">
         <v>22846.373475193806</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" s="23" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AL8" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
@@ -4199,8 +4239,11 @@
       <c r="AK9" s="14">
         <v>1128488.8887035879</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" s="23" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AL9" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
@@ -4312,8 +4355,11 @@
       <c r="AK10" s="14">
         <v>124745.70718075465</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" s="23" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AL10" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
@@ -4425,8 +4471,11 @@
       <c r="AK11" s="14">
         <v>175304.70135307586</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" s="23" customFormat="1" ht="16.5" customHeight="1">
+      <c r="AL11" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
@@ -4537,6 +4586,9 @@
       </c>
       <c r="AK12" s="14">
         <v>361844.28941487317</v>
+      </c>
+      <c r="AL12" s="14" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:38" s="17" customFormat="1" ht="16.5" customHeight="1">
@@ -4544,16 +4596,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F13" s="12">
         <v>39854</v>
@@ -4648,8 +4700,11 @@
       <c r="AJ13" s="12">
         <v>53830.315945999995</v>
       </c>
-      <c r="AK13" s="22">
+      <c r="AK13" s="12">
         <v>54097.055531000005</v>
+      </c>
+      <c r="AL13" s="49" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="16.5" customHeight="1">
@@ -4657,16 +4712,16 @@
         <v>43</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F14" s="9">
         <v>21790</v>
@@ -4761,26 +4816,28 @@
       <c r="AJ14" s="9">
         <v>16584.114250999999</v>
       </c>
-      <c r="AK14" s="14">
+      <c r="AK14" s="9">
         <v>16387.317525999999</v>
       </c>
-      <c r="AL14" s="24"/>
+      <c r="AL14" s="14" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:38" ht="16.5" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>0</v>
@@ -4875,26 +4932,28 @@
       <c r="AJ15" s="9">
         <v>2040.4712919999999</v>
       </c>
-      <c r="AK15" s="14">
+      <c r="AK15" s="9">
         <v>1979.8159760000001</v>
       </c>
-      <c r="AL15" s="24"/>
+      <c r="AL15" s="14" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:38" ht="16.5" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F16" s="9">
         <v>381</v>
@@ -4989,26 +5048,28 @@
       <c r="AJ16" s="9">
         <v>2728.4780609999998</v>
       </c>
-      <c r="AK16" s="14">
+      <c r="AK16" s="9">
         <v>2692.6561099999999</v>
       </c>
-      <c r="AL16" s="21"/>
+      <c r="AL16" s="14" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:38" ht="16.5" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F17" s="9">
         <v>10558</v>
@@ -5103,26 +5164,28 @@
       <c r="AJ17" s="9">
         <v>16914.100309000001</v>
       </c>
-      <c r="AK17" s="14">
+      <c r="AK17" s="9">
         <v>17365.828963</v>
       </c>
-      <c r="AL17" s="28"/>
+      <c r="AL17" s="14" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:38" ht="16.5" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F18" s="9">
         <v>219</v>
@@ -5217,10 +5280,12 @@
       <c r="AJ18" s="9">
         <v>126.282285</v>
       </c>
-      <c r="AK18" s="14">
+      <c r="AK18" s="9">
         <v>125.805218</v>
       </c>
-      <c r="AL18" s="28"/>
+      <c r="AL18" s="14" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:38" ht="16.5" customHeight="1">
       <c r="A19" s="8" t="s">
@@ -5331,26 +5396,28 @@
       <c r="AJ19" s="9">
         <v>12609.891154999999</v>
       </c>
-      <c r="AK19" s="14">
+      <c r="AK19" s="9">
         <v>12707.307116</v>
       </c>
-      <c r="AL19" s="21"/>
+      <c r="AL19" s="14" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:38" ht="16.5" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>0</v>
@@ -5445,26 +5512,28 @@
       <c r="AJ20" s="9">
         <v>851.11984399999994</v>
       </c>
-      <c r="AK20" s="14">
+      <c r="AK20" s="9">
         <v>838.53669000000002</v>
       </c>
-      <c r="AL20" s="21"/>
+      <c r="AL20" s="14" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:38" ht="16.5" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>0</v>
@@ -5559,26 +5628,28 @@
       <c r="AJ21" s="9">
         <v>519.78385800000001</v>
       </c>
-      <c r="AK21" s="14">
+      <c r="AK21" s="9">
         <v>546.56959700000004</v>
       </c>
-      <c r="AL21" s="21"/>
+      <c r="AL21" s="14" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:38" ht="16.5" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F22" s="9">
         <v>390</v>
@@ -5673,10 +5744,12 @@
       <c r="AJ22" s="9">
         <v>1456.074891</v>
       </c>
-      <c r="AK22" s="14">
+      <c r="AK22" s="9">
         <v>1453.218335</v>
       </c>
-      <c r="AL22" s="24"/>
+      <c r="AL22" s="14" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:38" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
@@ -5763,144 +5836,150 @@
       <c r="AB23" s="6">
         <v>6419.7687269999997</v>
       </c>
-      <c r="AC23" s="22">
+      <c r="AC23" s="21">
         <v>6567.8390909999989</v>
       </c>
-      <c r="AD23" s="22">
+      <c r="AD23" s="21">
         <v>6803.8689760000007</v>
       </c>
-      <c r="AE23" s="22">
+      <c r="AE23" s="21">
         <v>6809.5782929999996</v>
       </c>
-      <c r="AF23" s="22">
+      <c r="AF23" s="21">
         <v>6674.6818009999997</v>
       </c>
-      <c r="AG23" s="22">
+      <c r="AG23" s="21">
         <v>6535.9028010000002</v>
       </c>
-      <c r="AH23" s="22">
+      <c r="AH23" s="21">
         <v>6520.4109099999996</v>
       </c>
-      <c r="AI23" s="22">
+      <c r="AI23" s="21">
         <v>6563.3325960000002</v>
       </c>
-      <c r="AJ23" s="22">
+      <c r="AJ23" s="21">
         <v>6361.2704389999999</v>
       </c>
-      <c r="AK23" s="22">
-        <v>6419.8326479999996</v>
+      <c r="AK23" s="50">
+        <v>6487.2486840000001</v>
+      </c>
+      <c r="AL23" s="21">
+        <v>3450.2113960000001</v>
       </c>
     </row>
     <row r="24" spans="1:38" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="22" t="s">
+      <c r="B24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="21" t="s">
         <v>37</v>
       </c>
       <c r="H24" s="6">
         <v>11418</v>
       </c>
-      <c r="I24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" s="22">
+      <c r="I24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="21">
         <v>10821</v>
       </c>
-      <c r="N24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="P24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="R24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="S24" s="22">
+      <c r="N24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" s="21">
         <v>24779</v>
       </c>
-      <c r="T24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="U24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="V24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="W24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="X24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z24" s="22" t="s">
+      <c r="T24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="U24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="V24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="X24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z24" s="21" t="s">
         <v>37</v>
       </c>
       <c r="AA24" s="6">
         <v>27943</v>
       </c>
-      <c r="AB24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI24" s="22">
+      <c r="AB24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI24" s="21">
         <v>33651</v>
       </c>
-      <c r="AJ24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK24" s="22" t="s">
+      <c r="AJ24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL24" s="21" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5908,472 +5987,475 @@
       <c r="A25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="31">
+      <c r="B25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="28">
         <v>3471</v>
       </c>
-      <c r="I25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="M25" s="30">
+      <c r="I25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="27">
         <v>4593</v>
       </c>
-      <c r="N25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="P25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="R25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="S25" s="31">
+      <c r="N25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" s="28">
         <v>6266</v>
       </c>
-      <c r="T25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="U25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="V25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="W25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="X25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA25" s="31">
+      <c r="T25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="U25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="X25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA25" s="28">
         <v>8956</v>
       </c>
-      <c r="AB25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI25" s="30">
+      <c r="AB25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI25" s="27">
         <v>8499</v>
       </c>
-      <c r="AJ25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK25" s="30" t="s">
+      <c r="AJ25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL25" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:38" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-    </row>
-    <row r="27" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="47"/>
-    </row>
-    <row r="28" spans="1:38" s="18" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A28" s="48" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+    </row>
+    <row r="27" spans="1:38" s="25" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+    </row>
+    <row r="28" spans="1:38" s="18" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A28" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-    </row>
-    <row r="29" spans="1:38" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A29" s="48" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+    </row>
+    <row r="29" spans="1:38" s="29" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A29" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-    </row>
-    <row r="30" spans="1:38" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A30" s="45" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+    </row>
+    <row r="30" spans="1:38" s="29" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A30" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-    </row>
-    <row r="31" spans="1:38" s="18" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A31" s="45" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+    </row>
+    <row r="31" spans="1:38" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A31" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-    </row>
-    <row r="32" spans="1:38" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A32" s="45" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+    </row>
+    <row r="32" spans="1:38" s="29" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A32" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
-    </row>
-    <row r="33" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A33" s="45" t="s">
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+    </row>
+    <row r="33" spans="1:26" s="29" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A33" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-    </row>
-    <row r="34" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A34" s="48" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+    </row>
+    <row r="34" spans="1:26" s="29" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A34" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-    </row>
-    <row r="35" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A35" s="49" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+    </row>
+    <row r="35" spans="1:26" s="29" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A35" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-    </row>
-    <row r="36" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A36" s="45" t="s">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+    </row>
+    <row r="36" spans="1:26" s="29" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A36" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="45"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
     </row>
     <row r="37" spans="1:26" s="18" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
     </row>
     <row r="38" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
       <c r="A38" s="42"/>
@@ -6434,1326 +6516,1326 @@
       <c r="Z39" s="43"/>
     </row>
     <row r="40" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
     </row>
     <row r="41" spans="1:26" s="18" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="38"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
     </row>
     <row r="42" spans="1:26" s="18" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
     </row>
     <row r="43" spans="1:26" s="18" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
     </row>
     <row r="44" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="40"/>
-      <c r="Z44" s="40"/>
-    </row>
-    <row r="45" spans="1:26" s="18" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A45" s="40" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
+      <c r="Z44" s="39"/>
+    </row>
+    <row r="45" spans="1:26" s="18" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A45" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
-      <c r="W45" s="40"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="40"/>
-      <c r="Z45" s="40"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="39"/>
     </row>
     <row r="46" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
     </row>
     <row r="47" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
     </row>
     <row r="48" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
     </row>
     <row r="49" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="38"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="41"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="41"/>
+      <c r="Z49" s="41"/>
     </row>
     <row r="50" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="33"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="33"/>
-      <c r="W50" s="33"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
     </row>
     <row r="51" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
-      <c r="Z51" s="39"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
     </row>
     <row r="52" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
-      <c r="Z52" s="39"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="30"/>
     </row>
     <row r="53" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="32"/>
-      <c r="V53" s="32"/>
-      <c r="W53" s="32"/>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="32"/>
-      <c r="Z53" s="32"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
+      <c r="Y53" s="47"/>
+      <c r="Z53" s="47"/>
     </row>
     <row r="54" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="35"/>
-      <c r="Z54" s="35"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="45"/>
+      <c r="Y54" s="45"/>
+      <c r="Z54" s="45"/>
     </row>
     <row r="55" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
+      <c r="X55" s="45"/>
+      <c r="Y55" s="45"/>
+      <c r="Z55" s="45"/>
     </row>
     <row r="56" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="34"/>
-      <c r="V56" s="34"/>
-      <c r="W56" s="34"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="34"/>
-      <c r="Z56" s="34"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46"/>
+      <c r="Y56" s="46"/>
+      <c r="Z56" s="46"/>
     </row>
     <row r="57" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="46"/>
+      <c r="S57" s="46"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="46"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="46"/>
+      <c r="X57" s="46"/>
+      <c r="Y57" s="46"/>
+      <c r="Z57" s="46"/>
+    </row>
+    <row r="58" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A58" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="47"/>
+      <c r="R58" s="47"/>
+      <c r="S58" s="47"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
+      <c r="X58" s="47"/>
+      <c r="Y58" s="47"/>
+      <c r="Z58" s="47"/>
+    </row>
+    <row r="59" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A59" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37"/>
+    </row>
+    <row r="60" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A60" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="44"/>
+      <c r="W60" s="44"/>
+      <c r="X60" s="44"/>
+      <c r="Y60" s="44"/>
+      <c r="Z60" s="44"/>
+    </row>
+    <row r="61" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A61" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="31"/>
+      <c r="V61" s="31"/>
+      <c r="W61" s="31"/>
+      <c r="X61" s="31"/>
+      <c r="Y61" s="31"/>
+      <c r="Z61" s="31"/>
+    </row>
+    <row r="62" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A62" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="46"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="46"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="46"/>
+      <c r="X62" s="46"/>
+      <c r="Y62" s="46"/>
+      <c r="Z62" s="46"/>
+    </row>
+    <row r="63" spans="1:26" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A63" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="34"/>
-      <c r="V57" s="34"/>
-      <c r="W57" s="34"/>
-      <c r="X57" s="34"/>
-      <c r="Y57" s="34"/>
-      <c r="Z57" s="34"/>
-    </row>
-    <row r="58" spans="1:26" s="18" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A58" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="32"/>
-      <c r="U58" s="32"/>
-      <c r="V58" s="32"/>
-      <c r="W58" s="32"/>
-      <c r="X58" s="32"/>
-      <c r="Y58" s="32"/>
-      <c r="Z58" s="32"/>
-    </row>
-    <row r="59" spans="1:26" s="18" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A59" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
-      <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-    </row>
-    <row r="60" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A60" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36"/>
-      <c r="W60" s="36"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="36"/>
-      <c r="Z60" s="36"/>
-    </row>
-    <row r="61" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A61" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="37"/>
-      <c r="Z61" s="37"/>
-    </row>
-    <row r="62" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A62" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-    </row>
-    <row r="63" spans="1:26" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A63" s="35" t="s">
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="45"/>
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="45"/>
+      <c r="S63" s="45"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="45"/>
+      <c r="V63" s="45"/>
+      <c r="W63" s="45"/>
+      <c r="X63" s="45"/>
+      <c r="Y63" s="45"/>
+      <c r="Z63" s="45"/>
+    </row>
+    <row r="64" spans="1:26" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A64" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="31"/>
+      <c r="V64" s="31"/>
+      <c r="W64" s="31"/>
+      <c r="X64" s="31"/>
+      <c r="Y64" s="31"/>
+      <c r="Z64" s="31"/>
+    </row>
+    <row r="65" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A65" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="46"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="46"/>
+      <c r="X65" s="46"/>
+      <c r="Y65" s="46"/>
+      <c r="Z65" s="46"/>
+    </row>
+    <row r="66" spans="1:26" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A66" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
-      <c r="Y63" s="35"/>
-      <c r="Z63" s="35"/>
-    </row>
-    <row r="64" spans="1:26" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A64" s="37" t="s">
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="45"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="45"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="45"/>
+      <c r="V66" s="45"/>
+      <c r="W66" s="45"/>
+      <c r="X66" s="45"/>
+      <c r="Y66" s="45"/>
+      <c r="Z66" s="45"/>
+    </row>
+    <row r="67" spans="1:26" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A67" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="44"/>
+      <c r="V67" s="44"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
+      <c r="Y67" s="44"/>
+      <c r="Z67" s="44"/>
+    </row>
+    <row r="68" spans="1:26" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A68" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="31"/>
+      <c r="S68" s="31"/>
+      <c r="T68" s="31"/>
+      <c r="U68" s="31"/>
+      <c r="V68" s="31"/>
+      <c r="W68" s="31"/>
+      <c r="X68" s="31"/>
+      <c r="Y68" s="31"/>
+      <c r="Z68" s="31"/>
+    </row>
+    <row r="69" spans="1:26" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A69" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="45"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="45"/>
+      <c r="N69" s="45"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="45"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="45"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="45"/>
+      <c r="U69" s="45"/>
+      <c r="V69" s="45"/>
+      <c r="W69" s="45"/>
+      <c r="X69" s="45"/>
+      <c r="Y69" s="45"/>
+      <c r="Z69" s="45"/>
+    </row>
+    <row r="70" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A70" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="45"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="45"/>
+      <c r="Q70" s="45"/>
+      <c r="R70" s="45"/>
+      <c r="S70" s="45"/>
+      <c r="T70" s="45"/>
+      <c r="U70" s="45"/>
+      <c r="V70" s="45"/>
+      <c r="W70" s="45"/>
+      <c r="X70" s="45"/>
+      <c r="Y70" s="45"/>
+      <c r="Z70" s="45"/>
+    </row>
+    <row r="71" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A71" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="45"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="45"/>
+      <c r="N71" s="45"/>
+      <c r="O71" s="45"/>
+      <c r="P71" s="45"/>
+      <c r="Q71" s="45"/>
+      <c r="R71" s="45"/>
+      <c r="S71" s="45"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="45"/>
+      <c r="V71" s="45"/>
+      <c r="W71" s="45"/>
+      <c r="X71" s="45"/>
+      <c r="Y71" s="45"/>
+      <c r="Z71" s="45"/>
+    </row>
+    <row r="72" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A72" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="45"/>
+      <c r="O72" s="45"/>
+      <c r="P72" s="45"/>
+      <c r="Q72" s="45"/>
+      <c r="R72" s="45"/>
+      <c r="S72" s="45"/>
+      <c r="T72" s="45"/>
+      <c r="U72" s="45"/>
+      <c r="V72" s="45"/>
+      <c r="W72" s="45"/>
+      <c r="X72" s="45"/>
+      <c r="Y72" s="45"/>
+      <c r="Z72" s="45"/>
+    </row>
+    <row r="73" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A73" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="37"/>
-      <c r="Z64" s="37"/>
-    </row>
-    <row r="65" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A65" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="34"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="34"/>
-      <c r="X65" s="34"/>
-      <c r="Y65" s="34"/>
-      <c r="Z65" s="34"/>
-    </row>
-    <row r="66" spans="1:26" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A66" s="35" t="s">
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="31"/>
+      <c r="S73" s="31"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="31"/>
+      <c r="V73" s="31"/>
+      <c r="W73" s="31"/>
+      <c r="X73" s="31"/>
+      <c r="Y73" s="31"/>
+      <c r="Z73" s="31"/>
+    </row>
+    <row r="74" spans="1:26" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A74" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="45"/>
+      <c r="Q74" s="45"/>
+      <c r="R74" s="45"/>
+      <c r="S74" s="45"/>
+      <c r="T74" s="45"/>
+      <c r="U74" s="45"/>
+      <c r="V74" s="45"/>
+      <c r="W74" s="45"/>
+      <c r="X74" s="45"/>
+      <c r="Y74" s="45"/>
+      <c r="Z74" s="45"/>
+    </row>
+    <row r="75" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A75" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="45"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="45"/>
+      <c r="N75" s="45"/>
+      <c r="O75" s="45"/>
+      <c r="P75" s="45"/>
+      <c r="Q75" s="45"/>
+      <c r="R75" s="45"/>
+      <c r="S75" s="45"/>
+      <c r="T75" s="45"/>
+      <c r="U75" s="45"/>
+      <c r="V75" s="45"/>
+      <c r="W75" s="45"/>
+      <c r="X75" s="45"/>
+      <c r="Y75" s="45"/>
+      <c r="Z75" s="45"/>
+    </row>
+    <row r="76" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A76" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
-      <c r="V66" s="35"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="35"/>
-      <c r="Y66" s="35"/>
-      <c r="Z66" s="35"/>
-    </row>
-    <row r="67" spans="1:26" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A67" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="36"/>
-      <c r="W67" s="36"/>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="36"/>
-      <c r="Z67" s="36"/>
-    </row>
-    <row r="68" spans="1:26" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A68" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
-      <c r="Y68" s="37"/>
-      <c r="Z68" s="37"/>
-    </row>
-    <row r="69" spans="1:26" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A69" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="35"/>
-    </row>
-    <row r="70" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A70" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="35"/>
-      <c r="Y70" s="35"/>
-      <c r="Z70" s="35"/>
-    </row>
-    <row r="71" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A71" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
-      <c r="S71" s="35"/>
-      <c r="T71" s="35"/>
-      <c r="U71" s="35"/>
-      <c r="V71" s="35"/>
-      <c r="W71" s="35"/>
-      <c r="X71" s="35"/>
-      <c r="Y71" s="35"/>
-      <c r="Z71" s="35"/>
-    </row>
-    <row r="72" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A72" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
-      <c r="S72" s="35"/>
-      <c r="T72" s="35"/>
-      <c r="U72" s="35"/>
-      <c r="V72" s="35"/>
-      <c r="W72" s="35"/>
-      <c r="X72" s="35"/>
-      <c r="Y72" s="35"/>
-      <c r="Z72" s="35"/>
-    </row>
-    <row r="73" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="37"/>
-      <c r="Z73" s="37"/>
-    </row>
-    <row r="74" spans="1:26" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A74" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="35"/>
-      <c r="T74" s="35"/>
-      <c r="U74" s="35"/>
-      <c r="V74" s="35"/>
-      <c r="W74" s="35"/>
-      <c r="X74" s="35"/>
-      <c r="Y74" s="35"/>
-      <c r="Z74" s="35"/>
-    </row>
-    <row r="75" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="35"/>
-      <c r="T75" s="35"/>
-      <c r="U75" s="35"/>
-      <c r="V75" s="35"/>
-      <c r="W75" s="35"/>
-      <c r="X75" s="35"/>
-      <c r="Y75" s="35"/>
-      <c r="Z75" s="35"/>
-    </row>
-    <row r="76" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="35" t="s">
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="45"/>
+      <c r="Q76" s="45"/>
+      <c r="R76" s="45"/>
+      <c r="S76" s="45"/>
+      <c r="T76" s="45"/>
+      <c r="U76" s="45"/>
+      <c r="V76" s="45"/>
+      <c r="W76" s="45"/>
+      <c r="X76" s="45"/>
+      <c r="Y76" s="45"/>
+      <c r="Z76" s="45"/>
+    </row>
+    <row r="77" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A77" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="44"/>
+      <c r="T77" s="44"/>
+      <c r="U77" s="44"/>
+      <c r="V77" s="44"/>
+      <c r="W77" s="44"/>
+      <c r="X77" s="44"/>
+      <c r="Y77" s="44"/>
+      <c r="Z77" s="44"/>
+    </row>
+    <row r="78" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A78" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="45"/>
+      <c r="O78" s="45"/>
+      <c r="P78" s="45"/>
+      <c r="Q78" s="45"/>
+      <c r="R78" s="45"/>
+      <c r="S78" s="45"/>
+      <c r="T78" s="45"/>
+      <c r="U78" s="45"/>
+      <c r="V78" s="45"/>
+      <c r="W78" s="45"/>
+      <c r="X78" s="45"/>
+      <c r="Y78" s="45"/>
+      <c r="Z78" s="45"/>
+    </row>
+    <row r="79" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A79" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="45"/>
+      <c r="L79" s="45"/>
+      <c r="M79" s="45"/>
+      <c r="N79" s="45"/>
+      <c r="O79" s="45"/>
+      <c r="P79" s="45"/>
+      <c r="Q79" s="45"/>
+      <c r="R79" s="45"/>
+      <c r="S79" s="45"/>
+      <c r="T79" s="45"/>
+      <c r="U79" s="45"/>
+      <c r="V79" s="45"/>
+      <c r="W79" s="45"/>
+      <c r="X79" s="45"/>
+      <c r="Y79" s="45"/>
+      <c r="Z79" s="45"/>
+    </row>
+    <row r="80" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A80" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="35"/>
-      <c r="T76" s="35"/>
-      <c r="U76" s="35"/>
-      <c r="V76" s="35"/>
-      <c r="W76" s="35"/>
-      <c r="X76" s="35"/>
-      <c r="Y76" s="35"/>
-      <c r="Z76" s="35"/>
-    </row>
-    <row r="77" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A77" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
-      <c r="Q77" s="36"/>
-      <c r="R77" s="36"/>
-      <c r="S77" s="36"/>
-      <c r="T77" s="36"/>
-      <c r="U77" s="36"/>
-      <c r="V77" s="36"/>
-      <c r="W77" s="36"/>
-      <c r="X77" s="36"/>
-      <c r="Y77" s="36"/>
-      <c r="Z77" s="36"/>
-    </row>
-    <row r="78" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="35"/>
-      <c r="S78" s="35"/>
-      <c r="T78" s="35"/>
-      <c r="U78" s="35"/>
-      <c r="V78" s="35"/>
-      <c r="W78" s="35"/>
-      <c r="X78" s="35"/>
-      <c r="Y78" s="35"/>
-      <c r="Z78" s="35"/>
-    </row>
-    <row r="79" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A79" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="35"/>
-      <c r="N79" s="35"/>
-      <c r="O79" s="35"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="35"/>
-      <c r="R79" s="35"/>
-      <c r="S79" s="35"/>
-      <c r="T79" s="35"/>
-      <c r="U79" s="35"/>
-      <c r="V79" s="35"/>
-      <c r="W79" s="35"/>
-      <c r="X79" s="35"/>
-      <c r="Y79" s="35"/>
-      <c r="Z79" s="35"/>
-    </row>
-    <row r="80" spans="1:26" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A80" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="35"/>
-      <c r="U80" s="35"/>
-      <c r="V80" s="35"/>
-      <c r="W80" s="35"/>
-      <c r="X80" s="35"/>
-      <c r="Y80" s="35"/>
-      <c r="Z80" s="35"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="45"/>
+      <c r="O80" s="45"/>
+      <c r="P80" s="45"/>
+      <c r="Q80" s="45"/>
+      <c r="R80" s="45"/>
+      <c r="S80" s="45"/>
+      <c r="T80" s="45"/>
+      <c r="U80" s="45"/>
+      <c r="V80" s="45"/>
+      <c r="W80" s="45"/>
+      <c r="X80" s="45"/>
+      <c r="Y80" s="45"/>
+      <c r="Z80" s="45"/>
     </row>
     <row r="81" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="35"/>
-      <c r="N81" s="35"/>
-      <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="35"/>
-      <c r="R81" s="35"/>
-      <c r="S81" s="35"/>
-      <c r="T81" s="35"/>
-      <c r="U81" s="35"/>
-      <c r="V81" s="35"/>
-      <c r="W81" s="35"/>
-      <c r="X81" s="35"/>
-      <c r="Y81" s="35"/>
-      <c r="Z81" s="35"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="45"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="45"/>
+      <c r="N81" s="45"/>
+      <c r="O81" s="45"/>
+      <c r="P81" s="45"/>
+      <c r="Q81" s="45"/>
+      <c r="R81" s="45"/>
+      <c r="S81" s="45"/>
+      <c r="T81" s="45"/>
+      <c r="U81" s="45"/>
+      <c r="V81" s="45"/>
+      <c r="W81" s="45"/>
+      <c r="X81" s="45"/>
+      <c r="Y81" s="45"/>
+      <c r="Z81" s="45"/>
     </row>
     <row r="82" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A82" s="36" t="s">
+      <c r="A82" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
-      <c r="S82" s="36"/>
-      <c r="T82" s="36"/>
-      <c r="U82" s="36"/>
-      <c r="V82" s="36"/>
-      <c r="W82" s="36"/>
-      <c r="X82" s="36"/>
-      <c r="Y82" s="36"/>
-      <c r="Z82" s="36"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="44"/>
+      <c r="P82" s="44"/>
+      <c r="Q82" s="44"/>
+      <c r="R82" s="44"/>
+      <c r="S82" s="44"/>
+      <c r="T82" s="44"/>
+      <c r="U82" s="44"/>
+      <c r="V82" s="44"/>
+      <c r="W82" s="44"/>
+      <c r="X82" s="44"/>
+      <c r="Y82" s="44"/>
+      <c r="Z82" s="44"/>
     </row>
     <row r="83" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="35"/>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="35"/>
-      <c r="S83" s="35"/>
-      <c r="T83" s="35"/>
-      <c r="U83" s="35"/>
-      <c r="V83" s="35"/>
-      <c r="W83" s="35"/>
-      <c r="X83" s="35"/>
-      <c r="Y83" s="35"/>
-      <c r="Z83" s="35"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="45"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="45"/>
+      <c r="N83" s="45"/>
+      <c r="O83" s="45"/>
+      <c r="P83" s="45"/>
+      <c r="Q83" s="45"/>
+      <c r="R83" s="45"/>
+      <c r="S83" s="45"/>
+      <c r="T83" s="45"/>
+      <c r="U83" s="45"/>
+      <c r="V83" s="45"/>
+      <c r="W83" s="45"/>
+      <c r="X83" s="45"/>
+      <c r="Y83" s="45"/>
+      <c r="Z83" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A1:AL1"/>
     <mergeCell ref="A37:Z37"/>
     <mergeCell ref="A36:Z36"/>
     <mergeCell ref="A26:Z26"/>
